--- a/mapping_schemes/south/ZAF_COM.xlsx
+++ b/mapping_schemes/south/ZAF_COM.xlsx
@@ -2180,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,7 +2373,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MATO</t>
+          <t>EWV/LN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MCF/LWAL</t>
+          <t>MATO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2423,32 +2423,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HBET:3-6</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ME+MEO/LWAL</t>
+          <t>MCF/LWAL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>HBET:3-6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MUR+ADO/LWAL</t>
+          <t>ME+MEO/LWAL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2483,26 +2483,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MUR+CB/LWAL</t>
+          <t>MUR+ADO/LWAL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2528,26 +2528,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MUR+CL/LWAL</t>
+          <t>MUR+CB/LWAL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2573,26 +2573,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MUR+CLBLH/LWAL</t>
+          <t>MUR+CL/LWAL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2618,26 +2618,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MUR+STDRE/LWAL</t>
+          <t>MUR+CLBLH/LWAL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.475</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2663,26 +2663,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.05</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MUR+STRUB/LWAL</t>
+          <t>MUR+STDRE/LWAL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2708,26 +2708,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>W/LWAL</t>
+          <t>MUR+STRUB/LWAL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>H:2</t>
+          <t>H:1</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2753,26 +2753,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>H:3</t>
+          <t>H:2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>W+WWD/LWAL</t>
+          <t>W/LWAL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H:1</t>
+          <t>H:3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2783,10 +2783,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>H:1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>W+WWD/LWAL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>H:2</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/mapping_schemes/south/ZAF_COM.xlsx
+++ b/mapping_schemes/south/ZAF_COM.xlsx
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2600</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
         <v>545</v>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
         <v>626</v>
@@ -2912,11 +2912,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>565</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3100</v>
+        <v>260</v>
       </c>
       <c r="D5" t="n">
         <v>545</v>
@@ -2949,7 +2949,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>950</v>
+        <v>260</v>
       </c>
       <c r="D6" t="n">
         <v>626</v>
@@ -2973,7 +2973,7 @@
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2984,11 +2984,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="D7" t="n">
         <v>565</v>
@@ -2997,7 +2997,7 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3300</v>
+        <v>450</v>
       </c>
       <c r="D8" t="n">
         <v>545</v>
@@ -3021,7 +3021,7 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -3032,11 +3032,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="D9" t="n">
         <v>626</v>
@@ -3045,7 +3045,7 @@
         <v>0.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="D10" t="n">
         <v>565</v>
@@ -3069,7 +3069,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="D11" t="n">
         <v>545</v>
@@ -3093,7 +3093,7 @@
         <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3104,11 +3104,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="D12" t="n">
         <v>626</v>
@@ -3117,7 +3117,7 @@
         <v>0.85</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3128,11 +3128,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="D13" t="n">
         <v>565</v>
@@ -3141,7 +3141,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="D14" t="n">
         <v>820</v>
@@ -3165,7 +3165,7 @@
         <v>0.05</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wholesale and retail trade</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="D15" t="n">
         <v>545</v>
@@ -3189,7 +3189,7 @@
         <v>0.85</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D16" t="n">
         <v>565</v>
@@ -3213,7 +3213,7 @@
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3224,11 +3224,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="D17" t="n">
         <v>820</v>
@@ -3237,7 +3237,7 @@
         <v>0.85</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wholesale and retail trade</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="D18" t="n">
         <v>545</v>
@@ -3261,7 +3261,7 @@
         <v>0.05</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="D19" t="n">
         <v>565</v>
@@ -3285,7 +3285,7 @@
         <v>0.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
